--- a/report/results.xlsx
+++ b/report/results.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\Git\opencv\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3F0762-AA55-4FF8-BD0A-FDC6BC14CA3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896F099E-B3C0-4891-9BAC-3B1DAE4EB2DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17565" yWindow="810" windowWidth="28800" windowHeight="11145" xr2:uid="{C93ADF89-54DD-4F75-8E65-E9E28625FB15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C93ADF89-54DD-4F75-8E65-E9E28625FB15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$201</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$201</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$201</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$11:$F$16</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$G$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$G$11:$G$16</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -157,6 +162,1014 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Dice Roll Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$11:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$11:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA79-4FF1-A280-A7DFB413D3F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1214810912"/>
+        <c:axId val="1207827840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1214810912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Die Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1207827840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1207827840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214810912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DA860C-0268-46FA-9538-2C3C411530A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,11 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32541AA0-CFFE-4ADE-B4F3-5CF864A22321}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +1510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -530,7 +1542,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -546,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -569,7 +1581,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -592,7 +1604,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -608,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -624,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -640,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -656,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -672,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -686,6 +1698,13 @@
       <c r="D11" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f>COUNTIF($A$2:$A$201, "1")</f>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -703,8 +1722,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f>COUNTIF($A$2:$A$201, "2")</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -719,8 +1745,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <f>COUNTIF($A$2:$A$201, "3")</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -735,8 +1768,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <f>COUNTIF($A$2:$A$201, "4")</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -751,8 +1791,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <f>COUNTIF($A$2:$A$201, "5")</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -767,8 +1814,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <f>COUNTIF($A$2:$A$201, "6")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -784,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -800,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -816,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -832,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -848,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -864,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -880,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -896,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -912,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -944,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -960,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
@@ -976,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -992,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1008,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1024,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1040,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1056,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1088,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1104,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1120,7 +2174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1136,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1152,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1168,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1184,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1200,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1216,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1232,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1248,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -1264,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -1280,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1296,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1312,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1328,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -1360,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
@@ -1376,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -1392,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6</v>
       </c>
@@ -1408,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -1424,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
@@ -1440,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1456,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1488,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -1504,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -1520,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -1536,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -1552,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6</v>
       </c>
@@ -1568,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -1584,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4</v>
       </c>
@@ -1616,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -1632,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -1648,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4</v>
       </c>
@@ -1664,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -1680,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -1696,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -1712,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5</v>
       </c>
@@ -1728,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>6</v>
       </c>
@@ -1744,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -1760,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6</v>
       </c>
@@ -1776,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -1792,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -1808,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>6</v>
       </c>
@@ -1824,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -1840,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -1872,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -1888,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
@@ -1904,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>5</v>
       </c>
@@ -1920,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5</v>
       </c>
@@ -1936,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -1952,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -1968,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5</v>
       </c>
@@ -1984,7 +3038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -2000,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>6</v>
       </c>
@@ -2016,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3</v>
       </c>
@@ -2032,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>6</v>
       </c>
@@ -2048,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6</v>
       </c>
@@ -2064,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5</v>
       </c>
@@ -2080,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>6</v>
       </c>
@@ -2096,7 +3150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -2112,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -2128,7 +3182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -2144,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -2160,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5</v>
       </c>
@@ -2176,7 +3230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3</v>
       </c>
@@ -2192,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -2208,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -2224,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3</v>
       </c>
@@ -2240,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3</v>
       </c>
@@ -2256,7 +3310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5</v>
       </c>
@@ -2272,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>3</v>
       </c>
@@ -2288,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>6</v>
       </c>
@@ -2304,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3</v>
       </c>
@@ -2320,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2</v>
       </c>
@@ -2336,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>4</v>
       </c>
@@ -2352,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>6</v>
       </c>
@@ -2368,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
@@ -2384,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -2400,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2</v>
       </c>
@@ -2416,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3</v>
       </c>
@@ -2432,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -2448,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -2464,7 +3518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2</v>
       </c>
@@ -2480,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4</v>
       </c>
@@ -2496,7 +3550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -2512,7 +3566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
@@ -2528,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -2544,7 +3598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -2560,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -2576,7 +3630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4</v>
       </c>
@@ -2592,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2</v>
       </c>
@@ -2608,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3</v>
       </c>
@@ -2640,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>5</v>
       </c>
@@ -2656,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>5</v>
       </c>
@@ -2672,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6</v>
       </c>
@@ -2688,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2</v>
       </c>
@@ -2704,7 +3758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>4</v>
       </c>
@@ -2720,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6</v>
       </c>
@@ -2736,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6</v>
       </c>
@@ -2752,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6</v>
       </c>
@@ -2768,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6</v>
       </c>
@@ -2784,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5</v>
       </c>
@@ -2800,7 +3854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -2816,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2</v>
       </c>
@@ -2832,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>5</v>
       </c>
@@ -2848,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>4</v>
       </c>
@@ -2864,7 +3918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2</v>
       </c>
@@ -2880,7 +3934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2</v>
       </c>
@@ -2896,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>3</v>
       </c>
@@ -2912,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -2928,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6</v>
       </c>
@@ -2944,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>3</v>
       </c>
@@ -2960,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>3</v>
       </c>
@@ -2976,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>4</v>
       </c>
@@ -2992,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>3</v>
       </c>
@@ -3008,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2</v>
       </c>
@@ -3024,7 +4078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2</v>
       </c>
@@ -3040,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>3</v>
       </c>
@@ -3056,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>3</v>
       </c>
@@ -3072,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>4</v>
       </c>
@@ -3088,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6</v>
       </c>
@@ -3104,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -3120,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>5</v>
       </c>
@@ -3136,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -3152,7 +4206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>5</v>
       </c>
@@ -3168,7 +4222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -3184,7 +4238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2</v>
       </c>
@@ -3200,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2</v>
       </c>
@@ -3216,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2</v>
       </c>
@@ -3232,7 +4286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>4</v>
       </c>
@@ -3248,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>6</v>
       </c>
@@ -3264,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>5</v>
       </c>
@@ -3280,7 +4334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2</v>
       </c>
@@ -3296,7 +4350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2</v>
       </c>
@@ -3312,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -3328,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>3</v>
       </c>
@@ -3344,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -3360,7 +4414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>3</v>
       </c>
@@ -3376,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>6</v>
       </c>
@@ -3392,7 +4446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>3</v>
       </c>
@@ -3408,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2</v>
       </c>
@@ -3424,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>3</v>
       </c>
@@ -3440,7 +4494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3</v>
       </c>
@@ -3456,7 +4510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
@@ -3472,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>5</v>
       </c>
@@ -3488,7 +4542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>5</v>
       </c>
@@ -3504,7 +4558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>5</v>
       </c>
@@ -3520,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>4</v>
       </c>
@@ -3536,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>6</v>
       </c>
@@ -3552,7 +4606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>3</v>
       </c>
@@ -3568,7 +4622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3</v>
       </c>
@@ -3600,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>5</v>
       </c>
@@ -3616,7 +4670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>5</v>
       </c>
@@ -3632,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>6</v>
       </c>
@@ -3648,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>4</v>
       </c>
@@ -3664,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -3680,7 +4734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>5</v>
       </c>
@@ -3696,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>5</v>
       </c>
@@ -3712,7 +4766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>3</v>
       </c>
@@ -3729,18 +4783,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D201" xr:uid="{7AC57920-4930-4C83-BDD0-A3B54CC0AB42}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="TRUE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="FALSE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D201" xr:uid="{7AC57920-4930-4C83-BDD0-A3B54CC0AB42}"/>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",D1)))</formula>
@@ -3753,5 +4796,6 @@
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>